--- a/Figures/summary_mock_paper.xlsx
+++ b/Figures/summary_mock_paper.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanderheydenh\OneDrive - AGR-AGR\Documents\Projets\Git\APOGEE\Figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://001gc-my.sharepoint.com/personal/herve_vanderheyden_agr_gc_ca/Documents/Documents/Projets/Git/APOGEE/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECDDDB7-6FFC-4E50-B357-E1120C4C5DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{4ECDDDB7-6FFC-4E50-B357-E1120C4C5DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FFA6131-B3FD-47CC-9900-B5487909E2CA}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_mock_paper" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>mock3</t>
   </si>
   <si>
-    <t>NA (Others)</t>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -260,8 +260,7 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -634,19 +633,10 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -661,8 +651,15 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1024,8 +1021,8 @@
   </sheetPr>
   <dimension ref="B2:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1052,828 +1049,828 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="11">
         <v>21.8586666666667</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="11">
         <v>17.411626447296399</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="11">
         <v>6.6290606497039501</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="11">
         <v>5.6839600572139002</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="11">
         <v>1.33725595078898E-3</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="12">
         <v>16.0386666666667</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="12">
         <v>19.735382559304998</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="12">
         <v>7.8137500666702202</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="12">
         <v>6.8612219751962096</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="12">
         <v>4.0270618556701001E-3</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="12">
         <v>14.313333333333301</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="12">
         <v>11.124625748503</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="12">
         <v>3.7706666666666702</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="12">
         <v>3.5092422556733598</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="12">
         <v>9.4201240764914106E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="11">
         <v>7.6013333333333302</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="11">
         <v>4.9945914183838402</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="11">
         <v>10.823065023737101</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="11">
         <v>9.3614233962062396</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="11">
         <v>40.632522064723197</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="12">
         <v>9.8226666666666702</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="12">
         <v>4.1029067824924796</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="12">
         <v>9.0058136433943101</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="12">
         <v>7.6179251600460702</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="12">
         <v>41.972723367697597</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="12">
         <v>7.0253333333333297</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="12">
         <v>2.8469846022241199</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="12">
         <v>6.0413333333333297</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="12">
         <v>5.51988525930593</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="12">
         <v>27.801477613747998</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="11">
+        <v>8.7293333333333294</v>
+      </c>
+      <c r="D6" s="11">
+        <v>6.2312202027216497</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1.4669013708860101E-2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>9.3574130763163892E-3</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>9.8293333333333308</v>
+      </c>
+      <c r="I6" s="12">
+        <v>12.7043100567992</v>
+      </c>
+      <c r="J6" s="12">
+        <v>6.8523654594911703</v>
+      </c>
+      <c r="K6" s="12">
+        <v>5.9772855114777803</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>7.0839999999999996</v>
+      </c>
+      <c r="N6" s="12">
+        <v>9.0969846022241203</v>
+      </c>
+      <c r="O6" s="12">
+        <v>4.63066666666667</v>
+      </c>
+      <c r="P6" s="12">
+        <v>4.1057330134176899</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11">
+        <v>8.4440000000000008</v>
+      </c>
+      <c r="D7" s="11">
+        <v>4.7435263952137401</v>
+      </c>
+      <c r="E7" s="11">
+        <v>10.8737397983677</v>
+      </c>
+      <c r="F7" s="11">
+        <v>9.6274412822329491</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>6.36</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1.6625459405278999</v>
+      </c>
+      <c r="J7" s="12">
+        <v>3.6348605258947102</v>
+      </c>
+      <c r="K7" s="12">
+        <v>3.23172528326146</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>7.1239999999999997</v>
+      </c>
+      <c r="N7" s="12">
+        <v>2.4299615055603101</v>
+      </c>
+      <c r="O7" s="12">
+        <v>4.2333333333333298</v>
+      </c>
+      <c r="P7" s="12">
+        <v>3.9140517137380502</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11">
+        <v>6.9960000000000004</v>
+      </c>
+      <c r="D8" s="11">
+        <v>13.852646198635201</v>
+      </c>
+      <c r="E8" s="11">
+        <v>16.330612898063698</v>
+      </c>
+      <c r="F8" s="11">
+        <v>13.9358616172283</v>
+      </c>
+      <c r="G8" s="11">
+        <v>13.3805830435945</v>
+      </c>
+      <c r="H8" s="12">
+        <v>9.6533333333333307</v>
+      </c>
+      <c r="I8" s="12">
+        <v>8.6040761777480803</v>
+      </c>
+      <c r="J8" s="12">
+        <v>10.305882980425601</v>
+      </c>
+      <c r="K8" s="12">
+        <v>8.6786489165081804</v>
+      </c>
+      <c r="L8" s="12">
+        <v>9.2783505154639201</v>
+      </c>
+      <c r="M8" s="12">
+        <v>7.1920000000000002</v>
+      </c>
+      <c r="N8" s="12">
+        <v>6.6095487596236104</v>
+      </c>
+      <c r="O8" s="12">
+        <v>7.60666666666667</v>
+      </c>
+      <c r="P8" s="12">
+        <v>7.0922080881465899</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>7.6800925863623499</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11">
+        <v>4.8760000000000003</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3.1062619356044898</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3.6365818530965002</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3.1922146323204998</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1.9296603369884999</v>
+      </c>
+      <c r="H9" s="12">
+        <v>9.5960000000000001</v>
+      </c>
+      <c r="I9" s="12">
+        <v>5.6866020715001699</v>
+      </c>
+      <c r="J9" s="12">
+        <v>6.6683556456344304</v>
+      </c>
+      <c r="K9" s="12">
+        <v>5.6170144376289102</v>
+      </c>
+      <c r="L9" s="12">
+        <v>3.1921176975945</v>
+      </c>
+      <c r="M9" s="12">
+        <v>7.2106666666666701</v>
+      </c>
+      <c r="N9" s="12">
+        <v>5.7995615911035099</v>
+      </c>
+      <c r="O9" s="12">
+        <v>6.5960000000000001</v>
+      </c>
+      <c r="P9" s="12">
+        <v>6.1753548784901398</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>2.5811139969586501</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11">
+        <v>10.325333333333299</v>
+      </c>
+      <c r="D10" s="11">
+        <v>10.7811060215542</v>
+      </c>
+      <c r="E10" s="11">
+        <v>12.8993972368912</v>
+      </c>
+      <c r="F10" s="11">
+        <v>11.0283796970872</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3.23615940090933</v>
+      </c>
+      <c r="H10" s="12">
+        <v>3.2786666666666702</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.78316070831941198</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.91471545149074596</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.71652425468084502</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.17987542955326499</v>
+      </c>
+      <c r="M10" s="12">
+        <v>7.1706666666666701</v>
+      </c>
+      <c r="N10" s="12">
+        <v>5.5055068434559402</v>
+      </c>
+      <c r="O10" s="12">
+        <v>6.032</v>
+      </c>
+      <c r="P10" s="12">
+        <v>5.4273956811388304</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>2.0428211925877102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11">
+        <v>10.468</v>
+      </c>
+      <c r="D11" s="11">
+        <v>8.0394225504467105</v>
+      </c>
+      <c r="E11" s="11">
+        <v>9.7028857950605403</v>
+      </c>
+      <c r="F11" s="11">
+        <v>8.6061464836178398</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1.20353035571008E-2</v>
+      </c>
+      <c r="H11" s="12">
+        <v>6.4546666666666699</v>
+      </c>
+      <c r="I11" s="12">
+        <v>3.1553625125292299</v>
+      </c>
+      <c r="J11" s="12">
+        <v>3.6948637260653898</v>
+      </c>
+      <c r="K11" s="12">
+        <v>3.21163581817695</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1.34235395189003E-3</v>
+      </c>
+      <c r="M11" s="12">
+        <v>14.452</v>
+      </c>
+      <c r="N11" s="12">
+        <v>8.8470380667236999</v>
+      </c>
+      <c r="O11" s="12">
+        <v>9.4826666666666704</v>
+      </c>
+      <c r="P11" s="12">
+        <v>8.7610417811616195</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>6.7286600546367197E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3.1453333333333302</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1.2616104243234201</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1.66408875140007</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1.3875123885034699</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1.29671391752577</v>
+      </c>
+      <c r="M12" s="12">
+        <v>6.9746666666666703</v>
+      </c>
+      <c r="N12" s="12">
+        <v>4.80645851154833</v>
+      </c>
+      <c r="O12" s="12">
+        <v>5.0919999999999996</v>
+      </c>
+      <c r="P12" s="12">
+        <v>4.8295644947254104</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>5.3317902272941398</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11">
         <v>8.6986666666666697</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D13" s="11">
         <v>11.4822184532792</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E13" s="11">
         <v>13.0660905744919</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F13" s="11">
         <v>11.468178111674</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G13" s="11">
         <v>7.3268253543728301</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H13" s="12">
         <v>9.7720000000000002</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I13" s="12">
         <v>13.944537253591699</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J13" s="12">
         <v>16.8208971145128</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K13" s="12">
         <v>14.441646800417899</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L13" s="12">
         <v>10.1387993986254</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M13" s="12">
         <v>7.1973333333333303</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N13" s="12">
         <v>11.248930710008599</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O13" s="12">
         <v>13.2586666666667</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P13" s="12">
         <v>12.224709462086</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q13" s="12">
         <v>6.4622051164731102</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7">
-        <v>10.468</v>
-      </c>
-      <c r="D7" s="7">
-        <v>8.0394225504467105</v>
-      </c>
-      <c r="E7" s="7">
-        <v>9.7028857950605403</v>
-      </c>
-      <c r="F7" s="7">
-        <v>8.6061464836178398</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1.20353035571008E-2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6.4546666666666699</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3.1553625125292299</v>
-      </c>
-      <c r="J7" s="7">
-        <v>3.6948637260653898</v>
-      </c>
-      <c r="K7" s="7">
-        <v>3.21163581817695</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1.34235395189003E-3</v>
-      </c>
-      <c r="M7" s="7">
-        <v>14.452</v>
-      </c>
-      <c r="N7" s="7">
-        <v>8.8470380667236999</v>
-      </c>
-      <c r="O7" s="7">
-        <v>9.4826666666666704</v>
-      </c>
-      <c r="P7" s="7">
-        <v>8.7610417811616195</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>6.7286600546367197E-3</v>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11">
+        <v>7.9986666666666704</v>
+      </c>
+      <c r="D14" s="11">
+        <v>9.7514723361066196</v>
+      </c>
+      <c r="E14" s="11">
+        <v>10.2042993545634</v>
+      </c>
+      <c r="F14" s="11">
+        <v>8.7424973598727398</v>
+      </c>
+      <c r="G14" s="11">
+        <v>10.5282161005616</v>
+      </c>
+      <c r="H14" s="12">
+        <v>9.6226666666666691</v>
+      </c>
+      <c r="I14" s="12">
+        <v>7.1767457400601398</v>
+      </c>
+      <c r="J14" s="12">
+        <v>7.3643927676142704</v>
+      </c>
+      <c r="K14" s="12">
+        <v>6.37237832480647</v>
+      </c>
+      <c r="L14" s="12">
+        <v>7.7601481958762903</v>
+      </c>
+      <c r="M14" s="12">
+        <v>7.1373333333333298</v>
+      </c>
+      <c r="N14" s="12">
+        <v>11.053785286569701</v>
+      </c>
+      <c r="O14" s="12">
+        <v>10.825333333333299</v>
+      </c>
+      <c r="P14" s="12">
+        <v>9.7315121375815998</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>10.7375957151893</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7">
-        <v>8.7293333333333294</v>
-      </c>
-      <c r="D8" s="7">
-        <v>6.2312202027216497</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1.4669013708860101E-2</v>
-      </c>
-      <c r="F8" s="7">
-        <v>9.3574130763163892E-3</v>
-      </c>
-      <c r="G8" s="7">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="11">
+        <v>4.0039999999999996</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1.0523363737129601</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1.21352749773297</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1.0961541032256299</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1.0149772666488399</v>
+      </c>
+      <c r="H15" s="12">
+        <v>6.4266666666666703</v>
+      </c>
+      <c r="I15" s="12">
+        <v>16.140327430671601</v>
+      </c>
+      <c r="J15" s="12">
+        <v>18.022294522374501</v>
+      </c>
+      <c r="K15" s="12">
+        <v>15.3671014919776</v>
+      </c>
+      <c r="L15" s="12">
+        <v>16.327051116838501</v>
+      </c>
+      <c r="M15" s="12">
+        <v>7.1186666666666696</v>
+      </c>
+      <c r="N15" s="12">
+        <v>15.627673224978601</v>
+      </c>
+      <c r="O15" s="12">
+        <v>16.852</v>
+      </c>
+      <c r="P15" s="12">
+        <v>15.3009932576438</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>15.4503492174568</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="11">
         <v>0</v>
       </c>
-      <c r="H8" s="7">
-        <v>9.8293333333333308</v>
-      </c>
-      <c r="I8" s="7">
-        <v>12.7043100567992</v>
-      </c>
-      <c r="J8" s="7">
-        <v>6.8523654594911703</v>
-      </c>
-      <c r="K8" s="7">
-        <v>5.9772855114777803</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="D16" s="11">
+        <v>8.5535716670450395</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4.6060703045820697</v>
+      </c>
+      <c r="F16" s="11">
+        <v>17.2483858462443</v>
+      </c>
+      <c r="G16" s="11">
+        <v>21.937683872693199</v>
+      </c>
+      <c r="H16" s="12">
         <v>0</v>
       </c>
-      <c r="M8" s="7">
-        <v>7.0839999999999996</v>
-      </c>
-      <c r="N8" s="7">
-        <v>9.0969846022241203</v>
-      </c>
-      <c r="O8" s="7">
-        <v>4.63066666666667</v>
-      </c>
-      <c r="P8" s="7">
-        <v>4.1057330134176899</v>
-      </c>
-      <c r="Q8" s="7">
+      <c r="I16" s="12">
+        <v>5.0424323421316402</v>
+      </c>
+      <c r="J16" s="12">
+        <v>7.2377193450317296</v>
+      </c>
+      <c r="K16" s="12">
+        <v>20.519379637318199</v>
+      </c>
+      <c r="L16" s="12">
+        <v>9.8488509450171797</v>
+      </c>
+      <c r="M16" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>3.1453333333333302</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1.2616104243234201</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1.66408875140007</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1.3875123885034699</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1.29671391752577</v>
-      </c>
-      <c r="M9" s="7">
-        <v>6.9746666666666703</v>
-      </c>
-      <c r="N9" s="7">
-        <v>4.80645851154833</v>
-      </c>
-      <c r="O9" s="7">
-        <v>5.0919999999999996</v>
-      </c>
-      <c r="P9" s="7">
-        <v>4.8295644947254104</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>5.3317902272941398</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7">
-        <v>8.4440000000000008</v>
-      </c>
-      <c r="D10" s="7">
-        <v>4.7435263952137401</v>
-      </c>
-      <c r="E10" s="7">
-        <v>10.8737397983677</v>
-      </c>
-      <c r="F10" s="7">
-        <v>9.6274412822329491</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6.36</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1.6625459405278999</v>
-      </c>
-      <c r="J10" s="7">
-        <v>3.6348605258947102</v>
-      </c>
-      <c r="K10" s="7">
-        <v>3.23172528326146</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>7.1239999999999997</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2.4299615055603101</v>
-      </c>
-      <c r="O10" s="7">
-        <v>4.2333333333333298</v>
-      </c>
-      <c r="P10" s="7">
-        <v>3.9140517137380502</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7">
-        <v>10.325333333333299</v>
-      </c>
-      <c r="D11" s="7">
-        <v>10.7811060215542</v>
-      </c>
-      <c r="E11" s="7">
-        <v>12.8993972368912</v>
-      </c>
-      <c r="F11" s="7">
-        <v>11.0283796970872</v>
-      </c>
-      <c r="G11" s="7">
-        <v>3.23615940090933</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3.2786666666666702</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0.78316070831941198</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0.91471545149074596</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0.71652425468084502</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0.17987542955326499</v>
-      </c>
-      <c r="M11" s="7">
-        <v>7.1706666666666701</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5.5055068434559402</v>
-      </c>
-      <c r="O11" s="7">
-        <v>6.032</v>
-      </c>
-      <c r="P11" s="7">
-        <v>5.4273956811388304</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>2.0428211925877102</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7">
-        <v>4.0039999999999996</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1.0523363737129601</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1.21352749773297</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1.0961541032256299</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1.0149772666488399</v>
-      </c>
-      <c r="H12" s="7">
-        <v>6.4266666666666703</v>
-      </c>
-      <c r="I12" s="7">
-        <v>16.140327430671601</v>
-      </c>
-      <c r="J12" s="7">
-        <v>18.022294522374501</v>
-      </c>
-      <c r="K12" s="7">
-        <v>15.3671014919776</v>
-      </c>
-      <c r="L12" s="7">
-        <v>16.327051116838501</v>
-      </c>
-      <c r="M12" s="7">
-        <v>7.1186666666666696</v>
-      </c>
-      <c r="N12" s="7">
-        <v>15.627673224978601</v>
-      </c>
-      <c r="O12" s="7">
-        <v>16.852</v>
-      </c>
-      <c r="P12" s="7">
-        <v>15.3009932576438</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>15.4503492174568</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>6.9960000000000004</v>
-      </c>
-      <c r="D13" s="7">
-        <v>13.852646198635201</v>
-      </c>
-      <c r="E13" s="7">
-        <v>16.330612898063698</v>
-      </c>
-      <c r="F13" s="7">
-        <v>13.9358616172283</v>
-      </c>
-      <c r="G13" s="7">
-        <v>13.3805830435945</v>
-      </c>
-      <c r="H13" s="7">
-        <v>9.6533333333333307</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8.6040761777480803</v>
-      </c>
-      <c r="J13" s="7">
-        <v>10.305882980425601</v>
-      </c>
-      <c r="K13" s="7">
-        <v>8.6786489165081804</v>
-      </c>
-      <c r="L13" s="7">
-        <v>9.2783505154639201</v>
-      </c>
-      <c r="M13" s="7">
-        <v>7.1920000000000002</v>
-      </c>
-      <c r="N13" s="7">
-        <v>6.6095487596236104</v>
-      </c>
-      <c r="O13" s="7">
-        <v>7.60666666666667</v>
-      </c>
-      <c r="P13" s="7">
-        <v>7.0922080881465899</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>7.6800925863623499</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4.8760000000000003</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3.1062619356044898</v>
-      </c>
-      <c r="E14" s="7">
-        <v>3.6365818530965002</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3.1922146323204998</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1.9296603369884999</v>
-      </c>
-      <c r="H14" s="7">
-        <v>9.5960000000000001</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5.6866020715001699</v>
-      </c>
-      <c r="J14" s="7">
-        <v>6.6683556456344304</v>
-      </c>
-      <c r="K14" s="7">
-        <v>5.6170144376289102</v>
-      </c>
-      <c r="L14" s="7">
-        <v>3.1921176975945</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7.2106666666666701</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5.7995615911035099</v>
-      </c>
-      <c r="O14" s="7">
-        <v>6.5960000000000001</v>
-      </c>
-      <c r="P14" s="7">
-        <v>6.1753548784901398</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>2.5811139969586501</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7">
-        <v>7.9986666666666704</v>
-      </c>
-      <c r="D15" s="7">
-        <v>9.7514723361066196</v>
-      </c>
-      <c r="E15" s="7">
-        <v>10.2042993545634</v>
-      </c>
-      <c r="F15" s="7">
-        <v>8.7424973598727398</v>
-      </c>
-      <c r="G15" s="7">
-        <v>10.5282161005616</v>
-      </c>
-      <c r="H15" s="7">
-        <v>9.6226666666666691</v>
-      </c>
-      <c r="I15" s="7">
-        <v>7.1767457400601398</v>
-      </c>
-      <c r="J15" s="7">
-        <v>7.3643927676142704</v>
-      </c>
-      <c r="K15" s="7">
-        <v>6.37237832480647</v>
-      </c>
-      <c r="L15" s="7">
-        <v>7.7601481958762903</v>
-      </c>
-      <c r="M15" s="7">
-        <v>7.1373333333333298</v>
-      </c>
-      <c r="N15" s="7">
-        <v>11.053785286569701</v>
-      </c>
-      <c r="O15" s="7">
-        <v>10.825333333333299</v>
-      </c>
-      <c r="P15" s="7">
-        <v>9.7315121375815998</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>10.7375957151893</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>8.5535716670450395</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.6060703045820697</v>
-      </c>
-      <c r="F16" s="7">
-        <v>17.2483858462443</v>
-      </c>
-      <c r="G16" s="7">
-        <v>21.937683872693199</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5.0424323421316402</v>
-      </c>
-      <c r="J16" s="7">
-        <v>7.2377193450317296</v>
-      </c>
-      <c r="K16" s="7">
-        <v>20.519379637318199</v>
-      </c>
-      <c r="L16" s="7">
-        <v>9.8488509450171797</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
+      <c r="N16" s="12">
         <v>5.0029405474764799</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="12">
         <v>5.5786666666666704</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="12">
         <v>13.408307976891001</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="12">
         <v>21.8964055497988</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="2">
         <f>SQRT((((D4-$C$4)^2)+((D16-$C$16)^2)+((D5-$C$5)^2)+((D8-$C$8)^2)+((D10-$C$10)^2)+((D13-$C$13)^2)+((D14-$C$14)^2)+((D7-$C$7)^2)+((D9-$C$9)^2)+((D6-$C$6)^2)+((D15-$C$15)^2)+((D11-$C$11)^2)+((D12-$C$12)^2))/12)</f>
         <v>4.0358087377060903</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <f>SQRT((((E4-$C$4)^2)+((E16-$C$16)^2)+((E5-$C$5)^2)+((E8-$C$8)^2)+((E10-$C$10)^2)+((E13-$C$13)^2)+((E14-$C$14)^2)+((E7-$C$7)^2)+((E9-$C$9)^2)+((E6-$C$6)^2)+((E15-$C$15)^2)+((E11-$C$11)^2)+((E12-$C$12)^2))/12)</f>
         <v>6.2782272698015742</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <f>SQRT((((F4-$C$4)^2)+((F16-$C$16)^2)+((F5-$C$5)^2)+((F8-$C$8)^2)+((F10-$C$10)^2)+((F13-$C$13)^2)+((F14-$C$14)^2)+((F7-$C$7)^2)+((F9-$C$9)^2)+((F6-$C$6)^2)+((F15-$C$15)^2)+((F11-$C$11)^2)+((F12-$C$12)^2))/12)</f>
         <v>7.6990313740912022</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="8">
         <f>SQRT((((G4-$C$4)^2)+((G16-$C$16)^2)+((G5-$C$5)^2)+((G8-$C$8)^2)+((G10-$C$10)^2)+((G13-$C$13)^2)+((G14-$C$14)^2)+((G7-$C$7)^2)+((G9-$C$9)^2)+((G6-$C$6)^2)+((G15-$C$15)^2)+((G11-$C$11)^2)+((G12-$C$12)^2))/12)</f>
         <v>14.212110084867895</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="2">
         <f>SQRT((((I4-$H$4)^2)+((I16-$H$16)^2)+((I5-$H$5)^2)+((I8-$H$8)^2)+((I10-$H$10)^2)+((I13-$H$13)^2)+((I14-$H$14)^2)+((I7-$H$7)^2)+((I9-$H$9)^2)+((I6-$H$6)^2)+((I15-$H$15)^2)+((I11-$H$11)^2)+((I12-$H$12)^2))/12)</f>
         <v>4.6272071817068223</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="8">
         <f>SQRT((((J4-$H$4)^2)+((J16-$H$16)^2)+((J5-$H$5)^2)+((J8-$H$8)^2)+((J10-$H$10)^2)+((J13-$H$13)^2)+((J14-$H$14)^2)+((J7-$H$7)^2)+((J9-$H$9)^2)+((J6-$H$6)^2)+((J15-$H$15)^2)+((J11-$H$11)^2)+((J12-$H$12)^2))/12)</f>
         <v>5.4054827773223515</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="8">
         <f>SQRT((((K4-$H$4)^2)+((K16-$H$16)^2)+((K5-$H$5)^2)+((K8-$H$8)^2)+((K10-$H$10)^2)+((K13-$H$13)^2)+((K14-$H$14)^2)+((K7-$H$7)^2)+((K9-$H$9)^2)+((K6-$H$6)^2)+((K15-$H$15)^2)+((K11-$H$11)^2)+((K12-$H$12)^2))/12)</f>
         <v>7.5498958907212996</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="8">
         <f>SQRT((((L4-$H$4)^2)+((L16-$H$16)^2)+((L5-$H$5)^2)+((L8-$H$8)^2)+((L10-$H$10)^2)+((L13-$H$13)^2)+((L14-$H$14)^2)+((L7-$H$7)^2)+((L9-$H$9)^2)+((L6-$H$6)^2)+((L15-$H$15)^2)+((L11-$H$11)^2)+((L12-$H$12)^2))/12)</f>
         <v>11.979975713603094</v>
       </c>
-      <c r="M17" s="11"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="2">
         <f>SQRT((((N4-$M$4)^2)+((N16-$M$16)^2)+((N5-$M$5)^2)+((N8-$M$8)^2)+((N10-$M$10)^2)+((N13-$M$13)^2)+((N14-$M$14)^2)+((N7-$M$7)^2)+((N9-$M$9)^2)+((N6-$M$6)^2)+((N15-$M$15)^2)+((N11-$M$11)^2)+((N12-$M$12)^2))/12)</f>
         <v>4.3216427394374515</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="8">
         <f>SQRT((((O4-$M$4)^2)+((O16-$M$16)^2)+((O5-$M$5)^2)+((O8-$M$8)^2)+((O10-$M$10)^2)+((O13-$M$13)^2)+((O14-$M$14)^2)+((O7-$M$7)^2)+((O9-$M$9)^2)+((O6-$M$6)^2)+((O15-$M$15)^2)+((O11-$M$11)^2)+((O12-$M$12)^2))/12)</f>
         <v>5.2660572924539437</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="8">
         <f>SQRT((((P4-$M$4)^2)+((P16-$M$16)^2)+((P5-$M$5)^2)+((P8-$M$8)^2)+((P10-$M$10)^2)+((P13-$M$13)^2)+((P14-$M$14)^2)+((P7-$M$7)^2)+((P9-$M$9)^2)+((P6-$M$6)^2)+((P15-$M$15)^2)+((P11-$M$11)^2)+((P12-$M$12)^2))/12)</f>
         <v>6.1780212396092926</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="8">
         <f>SQRT((((Q4-$M$4)^2)+((Q16-$M$16)^2)+((Q5-$M$5)^2)+((Q8-$M$8)^2)+((Q10-$M$10)^2)+((Q13-$M$13)^2)+((Q14-$M$14)^2)+((Q7-$M$7)^2)+((Q9-$M$9)^2)+((Q6-$M$6)^2)+((Q15-$M$15)^2)+((Q11-$M$11)^2)+((Q12-$M$12)^2))/12)</f>
         <v>11.397686342998803</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="5">
+      <c r="C18" s="6"/>
+      <c r="D18" s="4">
         <f>1-0.193819</f>
         <v>0.80618100000000004</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="6">
         <v>0.28299999999999997</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="6">
         <v>0.28199999999999997</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
         <v>0.35</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="5">
+      <c r="H18" s="6"/>
+      <c r="I18" s="4">
         <f>1-0.1837727</f>
         <v>0.81622729999999999</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="6">
         <v>0.30399999999999999</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="6">
         <v>0.3</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="6">
         <v>0.371</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="5">
+      <c r="M18" s="6"/>
+      <c r="N18" s="4">
         <f>1-0.1763063</f>
         <v>0.82369369999999997</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="6">
         <v>0.28599999999999998</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="6">
         <v>0.28499999999999998</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="6">
         <v>0.35099999999999998</v>
       </c>
     </row>

--- a/Figures/summary_mock_paper.xlsx
+++ b/Figures/summary_mock_paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://001gc-my.sharepoint.com/personal/herve_vanderheyden_agr_gc_ca/Documents/Documents/Projets/Git/APOGEE/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{4ECDDDB7-6FFC-4E50-B357-E1120C4C5DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FFA6131-B3FD-47CC-9900-B5487909E2CA}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{4ECDDDB7-6FFC-4E50-B357-E1120C4C5DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84ABE659-6D0C-4585-938E-675843DC72D6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_mock_paper" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +265,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +451,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -625,7 +638,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -651,15 +664,34 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1021,8 +1053,8 @@
   </sheetPr>
   <dimension ref="B2:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1049,27 +1081,27 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -1090,19 +1122,19 @@
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -1122,652 +1154,652 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>21.8586666666667</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>17.411626447296399</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>6.6290606497039501</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>5.6839600572139002</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>1.33725595078898E-3</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="16">
         <v>16.0386666666667</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="16">
         <v>19.735382559304998</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="16">
         <v>7.8137500666702202</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="16">
         <v>6.8612219751962096</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="16">
         <v>4.0270618556701001E-3</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <v>14.313333333333301</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>11.124625748503</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="11">
         <v>3.7706666666666702</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>3.5092422556733598</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <v>9.4201240764914106E-3</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>7.6013333333333302</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>4.9945914183838402</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>10.823065023737101</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>9.3614233962062396</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>40.632522064723197</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="16">
         <v>9.8226666666666702</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="16">
         <v>4.1029067824924796</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="16">
         <v>9.0058136433943101</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <v>7.6179251600460702</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="16">
         <v>41.972723367697597</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <v>7.0253333333333297</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <v>2.8469846022241199</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <v>6.0413333333333297</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <v>5.51988525930593</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <v>27.801477613747998</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>8.7293333333333294</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>6.2312202027216497</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>1.4669013708860101E-2</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>9.3574130763163892E-3</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="16">
         <v>9.8293333333333308</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="16">
         <v>12.7043100567992</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="16">
         <v>6.8523654594911703</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="16">
         <v>5.9772855114777803</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="16">
         <v>0</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>7.0839999999999996</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <v>9.0969846022241203</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="11">
         <v>4.63066666666667</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="11">
         <v>4.1057330134176899</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>8.4440000000000008</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>4.7435263952137401</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>10.8737397983677</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>9.6274412822329491</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="16">
         <v>6.36</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="16">
         <v>1.6625459405278999</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="16">
         <v>3.6348605258947102</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="16">
         <v>3.23172528326146</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="16">
         <v>0</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>7.1239999999999997</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <v>2.4299615055603101</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="11">
         <v>4.2333333333333298</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <v>3.9140517137380502</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>6.9960000000000004</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>13.852646198635201</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>16.330612898063698</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>13.9358616172283</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>13.3805830435945</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="16">
         <v>9.6533333333333307</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="16">
         <v>8.6040761777480803</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="16">
         <v>10.305882980425601</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="16">
         <v>8.6786489165081804</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="16">
         <v>9.2783505154639201</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <v>7.1920000000000002</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <v>6.6095487596236104</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <v>7.60666666666667</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="11">
         <v>7.0922080881465899</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <v>7.6800925863623499</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>4.8760000000000003</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>3.1062619356044898</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>3.6365818530965002</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>3.1922146323204998</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>1.9296603369884999</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="16">
         <v>9.5960000000000001</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="16">
         <v>5.6866020715001699</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="16">
         <v>6.6683556456344304</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="16">
         <v>5.6170144376289102</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="16">
         <v>3.1921176975945</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>7.2106666666666701</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <v>5.7995615911035099</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <v>6.5960000000000001</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="11">
         <v>6.1753548784901398</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="11">
         <v>2.5811139969586501</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>10.325333333333299</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>10.7811060215542</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>12.8993972368912</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>11.0283796970872</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>3.23615940090933</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="16">
         <v>3.2786666666666702</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="16">
         <v>0.78316070831941198</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="16">
         <v>0.91471545149074596</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="16">
         <v>0.71652425468084502</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="16">
         <v>0.17987542955326499</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>7.1706666666666701</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <v>5.5055068434559402</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <v>6.032</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <v>5.4273956811388304</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="11">
         <v>2.0428211925877102</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>10.468</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>8.0394225504467105</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>9.7028857950605403</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>8.6061464836178398</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>1.20353035571008E-2</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="16">
         <v>6.4546666666666699</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="16">
         <v>3.1553625125292299</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="16">
         <v>3.6948637260653898</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="16">
         <v>3.21163581817695</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="16">
         <v>1.34235395189003E-3</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>14.452</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <v>8.8470380667236999</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <v>9.4826666666666704</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="11">
         <v>8.7610417811616195</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="11">
         <v>6.7286600546367197E-3</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>0</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>0</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>0</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>0</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="16">
         <v>3.1453333333333302</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="16">
         <v>1.2616104243234201</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="16">
         <v>1.66408875140007</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="16">
         <v>1.3875123885034699</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="16">
         <v>1.29671391752577</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>6.9746666666666703</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <v>4.80645851154833</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
         <v>5.0919999999999996</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="11">
         <v>4.8295644947254104</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="11">
         <v>5.3317902272941398</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>8.6986666666666697</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>11.4822184532792</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>13.0660905744919</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>11.468178111674</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>7.3268253543728301</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="16">
         <v>9.7720000000000002</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="16">
         <v>13.944537253591699</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="16">
         <v>16.8208971145128</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="16">
         <v>14.441646800417899</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="16">
         <v>10.1387993986254</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>7.1973333333333303</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <v>11.248930710008599</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="11">
         <v>13.2586666666667</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="11">
         <v>12.224709462086</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="11">
         <v>6.4622051164731102</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>7.9986666666666704</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>9.7514723361066196</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>10.2042993545634</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>8.7424973598727398</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>10.5282161005616</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="16">
         <v>9.6226666666666691</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="16">
         <v>7.1767457400601398</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="16">
         <v>7.3643927676142704</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="16">
         <v>6.37237832480647</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="16">
         <v>7.7601481958762903</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="11">
         <v>7.1373333333333298</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="11">
         <v>11.053785286569701</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="11">
         <v>10.825333333333299</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="11">
         <v>9.7315121375815998</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="11">
         <v>10.7375957151893</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>4.0039999999999996</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>1.0523363737129601</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>1.21352749773297</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>1.0961541032256299</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>1.0149772666488399</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="16">
         <v>6.4266666666666703</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="16">
         <v>16.140327430671601</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="16">
         <v>18.022294522374501</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="16">
         <v>15.3671014919776</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="16">
         <v>16.327051116838501</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>7.1186666666666696</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="11">
         <v>15.627673224978601</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="11">
         <v>16.852</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="11">
         <v>15.3009932576438</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="11">
         <v>15.4503492174568</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>0</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>8.5535716670450395</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>4.6060703045820697</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>17.2483858462443</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>21.937683872693199</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="16">
         <v>0</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="16">
         <v>5.0424323421316402</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="16">
         <v>7.2377193450317296</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="16">
         <v>20.519379637318199</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="16">
         <v>9.8488509450171797</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>0</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="11">
         <v>5.0029405474764799</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="11">
         <v>5.5786666666666704</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="11">
         <v>13.408307976891001</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="11">
         <v>21.8964055497988</v>
       </c>
     </row>
@@ -1792,20 +1824,20 @@
         <f>SQRT((((G4-$C$4)^2)+((G16-$C$16)^2)+((G5-$C$5)^2)+((G8-$C$8)^2)+((G10-$C$10)^2)+((G13-$C$13)^2)+((G14-$C$14)^2)+((G7-$C$7)^2)+((G9-$C$9)^2)+((G6-$C$6)^2)+((G15-$C$15)^2)+((G11-$C$11)^2)+((G12-$C$12)^2))/12)</f>
         <v>14.212110084867895</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="2">
+      <c r="H17" s="17"/>
+      <c r="I17" s="18">
         <f>SQRT((((I4-$H$4)^2)+((I16-$H$16)^2)+((I5-$H$5)^2)+((I8-$H$8)^2)+((I10-$H$10)^2)+((I13-$H$13)^2)+((I14-$H$14)^2)+((I7-$H$7)^2)+((I9-$H$9)^2)+((I6-$H$6)^2)+((I15-$H$15)^2)+((I11-$H$11)^2)+((I12-$H$12)^2))/12)</f>
         <v>4.6272071817068223</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="17">
         <f>SQRT((((J4-$H$4)^2)+((J16-$H$16)^2)+((J5-$H$5)^2)+((J8-$H$8)^2)+((J10-$H$10)^2)+((J13-$H$13)^2)+((J14-$H$14)^2)+((J7-$H$7)^2)+((J9-$H$9)^2)+((J6-$H$6)^2)+((J15-$H$15)^2)+((J11-$H$11)^2)+((J12-$H$12)^2))/12)</f>
         <v>5.4054827773223515</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="17">
         <f>SQRT((((K4-$H$4)^2)+((K16-$H$16)^2)+((K5-$H$5)^2)+((K8-$H$8)^2)+((K10-$H$10)^2)+((K13-$H$13)^2)+((K14-$H$14)^2)+((K7-$H$7)^2)+((K9-$H$9)^2)+((K6-$H$6)^2)+((K15-$H$15)^2)+((K11-$H$11)^2)+((K12-$H$12)^2))/12)</f>
         <v>7.5498958907212996</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="17">
         <f>SQRT((((L4-$H$4)^2)+((L16-$H$16)^2)+((L5-$H$5)^2)+((L8-$H$8)^2)+((L10-$H$10)^2)+((L13-$H$13)^2)+((L14-$H$14)^2)+((L7-$H$7)^2)+((L9-$H$9)^2)+((L6-$H$6)^2)+((L15-$H$15)^2)+((L11-$H$11)^2)+((L12-$H$12)^2))/12)</f>
         <v>11.979975713603094</v>
       </c>
@@ -1845,18 +1877,18 @@
       <c r="G18" s="6">
         <v>0.35</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="4">
+      <c r="H18" s="19"/>
+      <c r="I18" s="15">
         <f>1-0.1837727</f>
         <v>0.81622729999999999</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="19">
         <v>0.30399999999999999</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="19">
         <v>0.3</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="19">
         <v>0.371</v>
       </c>
       <c r="M18" s="6"/>

--- a/Figures/summary_mock_paper.xlsx
+++ b/Figures/summary_mock_paper.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://001gc-my.sharepoint.com/personal/herve_vanderheyden_agr_gc_ca/Documents/Documents/Projets/Git/APOGEE/Figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanderheydenh\OneDrive - AGR-AGR\Documents\Projets\Git\APOGEE\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{4ECDDDB7-6FFC-4E50-B357-E1120C4C5DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84ABE659-6D0C-4585-938E-675843DC72D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB8AF8E-F8A1-4D1E-BD2D-BDEFA002F120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12900" yWindow="4290" windowWidth="22920" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_mock_paper" sheetId="1" r:id="rId1"/>
@@ -111,6 +111,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,7 +641,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -671,9 +674,6 @@
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -687,10 +687,16 @@
     <xf numFmtId="2" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="2" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1053,57 +1059,57 @@
   </sheetPr>
   <dimension ref="B2:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D18"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="26.54296875" style="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="26.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="14" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="12" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1122,19 +1128,19 @@
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -1153,8 +1159,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="10">
@@ -1172,19 +1178,19 @@
       <c r="G4" s="10">
         <v>1.33725595078898E-3</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>16.0386666666667</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>19.735382559304998</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>7.8137500666702202</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>6.8612219751962096</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <v>4.0270618556701001E-3</v>
       </c>
       <c r="M4" s="11">
@@ -1203,8 +1209,8 @@
         <v>9.4201240764914106E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="10">
@@ -1222,19 +1228,19 @@
       <c r="G5" s="10">
         <v>40.632522064723197</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>9.8226666666666702</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>4.1029067824924796</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>9.0058136433943101</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <v>7.6179251600460702</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>41.972723367697597</v>
       </c>
       <c r="M5" s="11">
@@ -1253,8 +1259,8 @@
         <v>27.801477613747998</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="10">
@@ -1272,19 +1278,19 @@
       <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>9.8293333333333308</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>12.7043100567992</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>6.8523654594911703</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>5.9772855114777803</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>0</v>
       </c>
       <c r="M6" s="11">
@@ -1303,8 +1309,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="10">
@@ -1322,19 +1328,19 @@
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>6.36</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>1.6625459405278999</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>3.6348605258947102</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>3.23172528326146</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>0</v>
       </c>
       <c r="M7" s="11">
@@ -1353,8 +1359,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
@@ -1372,19 +1378,19 @@
       <c r="G8" s="10">
         <v>13.3805830435945</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>9.6533333333333307</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>8.6040761777480803</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>10.305882980425601</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>8.6786489165081804</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <v>9.2783505154639201</v>
       </c>
       <c r="M8" s="11">
@@ -1403,8 +1409,8 @@
         <v>7.6800925863623499</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="10">
@@ -1422,19 +1428,19 @@
       <c r="G9" s="10">
         <v>1.9296603369884999</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>9.5960000000000001</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>5.6866020715001699</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>6.6683556456344304</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <v>5.6170144376289102</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>3.1921176975945</v>
       </c>
       <c r="M9" s="11">
@@ -1453,8 +1459,8 @@
         <v>2.5811139969586501</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="10">
@@ -1472,19 +1478,19 @@
       <c r="G10" s="10">
         <v>3.23615940090933</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>3.2786666666666702</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>0.78316070831941198</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>0.91471545149074596</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <v>0.71652425468084502</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>0.17987542955326499</v>
       </c>
       <c r="M10" s="11">
@@ -1503,8 +1509,8 @@
         <v>2.0428211925877102</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="10">
@@ -1522,19 +1528,19 @@
       <c r="G11" s="10">
         <v>1.20353035571008E-2</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>6.4546666666666699</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>3.1553625125292299</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>3.6948637260653898</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>3.21163581817695</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>1.34235395189003E-3</v>
       </c>
       <c r="M11" s="11">
@@ -1553,8 +1559,8 @@
         <v>6.7286600546367197E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="10">
@@ -1572,19 +1578,19 @@
       <c r="G12" s="10">
         <v>0</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>3.1453333333333302</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="15">
         <v>1.2616104243234201</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>1.66408875140007</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>1.3875123885034699</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>1.29671391752577</v>
       </c>
       <c r="M12" s="11">
@@ -1603,8 +1609,8 @@
         <v>5.3317902272941398</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="10">
@@ -1622,19 +1628,19 @@
       <c r="G13" s="10">
         <v>7.3268253543728301</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>9.7720000000000002</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <v>13.944537253591699</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <v>16.8208971145128</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <v>14.441646800417899</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>10.1387993986254</v>
       </c>
       <c r="M13" s="11">
@@ -1653,8 +1659,8 @@
         <v>6.4622051164731102</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="10">
@@ -1672,19 +1678,19 @@
       <c r="G14" s="10">
         <v>10.5282161005616</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>9.6226666666666691</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <v>7.1767457400601398</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>7.3643927676142704</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>6.37237832480647</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <v>7.7601481958762903</v>
       </c>
       <c r="M14" s="11">
@@ -1703,8 +1709,8 @@
         <v>10.7375957151893</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="10">
@@ -1722,19 +1728,19 @@
       <c r="G15" s="10">
         <v>1.0149772666488399</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
         <v>6.4266666666666703</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="15">
         <v>16.140327430671601</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="15">
         <v>18.022294522374501</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <v>15.3671014919776</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <v>16.327051116838501</v>
       </c>
       <c r="M15" s="11">
@@ -1753,7 +1759,7 @@
         <v>15.4503492174568</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
@@ -1772,19 +1778,19 @@
       <c r="G16" s="10">
         <v>21.937683872693199</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="15">
         <v>0</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="15">
         <v>5.0424323421316402</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="15">
         <v>7.2377193450317296</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <v>20.519379637318199</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <v>9.8488509450171797</v>
       </c>
       <c r="M16" s="11">
@@ -1803,7 +1809,7 @@
         <v>21.8964055497988</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
@@ -1824,20 +1830,20 @@
         <f>SQRT((((G4-$C$4)^2)+((G16-$C$16)^2)+((G5-$C$5)^2)+((G8-$C$8)^2)+((G10-$C$10)^2)+((G13-$C$13)^2)+((G14-$C$14)^2)+((G7-$C$7)^2)+((G9-$C$9)^2)+((G6-$C$6)^2)+((G15-$C$15)^2)+((G11-$C$11)^2)+((G12-$C$12)^2))/12)</f>
         <v>14.212110084867895</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18">
+      <c r="H17" s="16"/>
+      <c r="I17" s="13">
         <f>SQRT((((I4-$H$4)^2)+((I16-$H$16)^2)+((I5-$H$5)^2)+((I8-$H$8)^2)+((I10-$H$10)^2)+((I13-$H$13)^2)+((I14-$H$14)^2)+((I7-$H$7)^2)+((I9-$H$9)^2)+((I6-$H$6)^2)+((I15-$H$15)^2)+((I11-$H$11)^2)+((I12-$H$12)^2))/12)</f>
         <v>4.6272071817068223</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="16">
         <f>SQRT((((J4-$H$4)^2)+((J16-$H$16)^2)+((J5-$H$5)^2)+((J8-$H$8)^2)+((J10-$H$10)^2)+((J13-$H$13)^2)+((J14-$H$14)^2)+((J7-$H$7)^2)+((J9-$H$9)^2)+((J6-$H$6)^2)+((J15-$H$15)^2)+((J11-$H$11)^2)+((J12-$H$12)^2))/12)</f>
         <v>5.4054827773223515</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="16">
         <f>SQRT((((K4-$H$4)^2)+((K16-$H$16)^2)+((K5-$H$5)^2)+((K8-$H$8)^2)+((K10-$H$10)^2)+((K13-$H$13)^2)+((K14-$H$14)^2)+((K7-$H$7)^2)+((K9-$H$9)^2)+((K6-$H$6)^2)+((K15-$H$15)^2)+((K11-$H$11)^2)+((K12-$H$12)^2))/12)</f>
         <v>7.5498958907212996</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="16">
         <f>SQRT((((L4-$H$4)^2)+((L16-$H$16)^2)+((L5-$H$5)^2)+((L8-$H$8)^2)+((L10-$H$10)^2)+((L13-$H$13)^2)+((L14-$H$14)^2)+((L7-$H$7)^2)+((L9-$H$9)^2)+((L6-$H$6)^2)+((L15-$H$15)^2)+((L11-$H$11)^2)+((L12-$H$12)^2))/12)</f>
         <v>11.979975713603094</v>
       </c>
@@ -1859,51 +1865,48 @@
         <v>11.397686342998803</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="4">
-        <f>1-0.193819</f>
-        <v>0.80618100000000004</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="15">
-        <f>1-0.1837727</f>
-        <v>0.81622729999999999</v>
-      </c>
-      <c r="J18" s="19">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="K18" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="L18" s="19">
-        <v>0.371</v>
+      <c r="D18" s="20">
+        <v>0.8955554</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0.86110960000000003</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0.7855084</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0.78196350000000003</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="20">
+        <v>0.86855919999999998</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0.84100483999999998</v>
+      </c>
+      <c r="K18" s="20">
+        <v>0.80769831999999997</v>
+      </c>
+      <c r="L18" s="20">
+        <v>0.78403736000000002</v>
       </c>
       <c r="M18" s="6"/>
-      <c r="N18" s="4">
-        <f>1-0.1763063</f>
-        <v>0.82369369999999997</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0.35099999999999998</v>
+      <c r="N18" s="20">
+        <v>0.87963248999999999</v>
+      </c>
+      <c r="O18" s="20">
+        <v>0.86843428</v>
+      </c>
+      <c r="P18" s="20">
+        <v>0.81687326999999998</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>0.79098183</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/summary_mock_paper.xlsx
+++ b/Figures/summary_mock_paper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanderheydenh\OneDrive - AGR-AGR\Documents\Projets\Git\APOGEE\Figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://001gc-my.sharepoint.com/personal/herve_vanderheyden_agr_gc_ca/Documents/Documents/Projets/Git/APOGEE/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB8AF8E-F8A1-4D1E-BD2D-BDEFA002F120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{1FB8AF8E-F8A1-4D1E-BD2D-BDEFA002F120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C68C9547-C2CF-426C-8131-3EFE4AA0A76D}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="4290" windowWidth="22920" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_mock_paper" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Species</t>
   </si>
@@ -92,29 +92,29 @@
     <t>RMSE</t>
   </si>
   <si>
-    <t>mock</t>
-  </si>
-  <si>
-    <t>mock2</t>
-  </si>
-  <si>
-    <t>Similarity (1 - WUNIFRAC)</t>
-  </si>
-  <si>
-    <t>mock3</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>Similarity (1 - Bray)</t>
+  </si>
+  <si>
+    <t>Minimap2_F</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Mock</t>
+  </si>
+  <si>
+    <t>Mock2</t>
+  </si>
+  <si>
+    <t>Mock3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,19 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -275,8 +262,28 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,12 +461,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -641,64 +642,49 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1057,513 +1043,600 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Q18"/>
+  <dimension ref="B2:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.54296875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="26.5703125" style="1"/>
+    <col min="1" max="1" width="2.453125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="26.54296875" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>21.8586666666667</v>
+      </c>
+      <c r="D4" s="10">
+        <v>19.162954466643502</v>
+      </c>
+      <c r="E4" s="10">
+        <v>17.382942920483998</v>
+      </c>
+      <c r="F4" s="10">
+        <v>6.6539543690744498</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5.73972090039031</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1.33725595078898E-3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>16.0386666666667</v>
+      </c>
+      <c r="J4" s="10">
+        <v>21.433144808451601</v>
+      </c>
+      <c r="K4" s="10">
+        <v>19.595136290753601</v>
+      </c>
+      <c r="L4" s="10">
+        <v>7.9860231258585497</v>
+      </c>
+      <c r="M4" s="10">
+        <v>6.8060653146515904</v>
+      </c>
+      <c r="N4" s="10">
+        <v>4.0270618556701001E-3</v>
+      </c>
+      <c r="O4" s="2">
+        <v>14.313333333333301</v>
+      </c>
+      <c r="P4" s="10">
+        <v>11.076422243569199</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>11.183999572466901</v>
+      </c>
+      <c r="R4" s="10">
+        <v>3.8026666666666702</v>
+      </c>
+      <c r="S4" s="10">
+        <v>3.5315088321226602</v>
+      </c>
+      <c r="T4" s="10">
+        <v>9.4201240764914106E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.6013333333333302</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5.2255328229613998</v>
+      </c>
+      <c r="E5" s="10">
+        <v>4.9881139987713299</v>
+      </c>
+      <c r="F5" s="10">
+        <v>10.787673516194801</v>
+      </c>
+      <c r="G5" s="10">
+        <v>9.4837726567930307</v>
+      </c>
+      <c r="H5" s="10">
+        <v>40.632522064723197</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9.8226666666666702</v>
+      </c>
+      <c r="J5" s="10">
+        <v>4.0577312986874396</v>
+      </c>
+      <c r="K5" s="10">
+        <v>4.0312667022982396</v>
+      </c>
+      <c r="L5" s="10">
+        <v>9.0956375615155807</v>
+      </c>
+      <c r="M5" s="10">
+        <v>7.7624775631580398</v>
+      </c>
+      <c r="N5" s="10">
+        <v>41.972723367697597</v>
+      </c>
+      <c r="O5" s="2">
+        <v>7.0253333333333297</v>
+      </c>
+      <c r="P5" s="10">
+        <v>2.78044615220408</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>2.9673471569046601</v>
+      </c>
+      <c r="R5" s="10">
+        <v>5.9960000000000004</v>
+      </c>
+      <c r="S5" s="10">
+        <v>5.5619588817112096</v>
+      </c>
+      <c r="T5" s="10">
+        <v>27.801477613747998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.7293333333333294</v>
+      </c>
+      <c r="D6" s="10">
+        <v>6.89802342020326</v>
+      </c>
+      <c r="E6" s="10">
+        <v>6.2167792943187603</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2.1335324630298799E-2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2.0050259316687202E-2</v>
+      </c>
+      <c r="H6" s="10">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>5</v>
+      <c r="I6" s="2">
+        <v>9.8293333333333308</v>
+      </c>
+      <c r="J6" s="10">
+        <v>13.3670366022836</v>
+      </c>
+      <c r="K6" s="10">
+        <v>12.618920363441999</v>
+      </c>
+      <c r="L6" s="10">
+        <v>6.7697149944652599</v>
+      </c>
+      <c r="M6" s="10">
+        <v>5.8844804029255</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>7.0839999999999996</v>
+      </c>
+      <c r="P6" s="10">
+        <v>9.2499199487672108</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>9.0650384779820392</v>
+      </c>
+      <c r="R6" s="10">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="S6" s="10">
+        <v>4.1212104966896304</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10">
-        <v>21.8586666666667</v>
-      </c>
-      <c r="D4" s="10">
-        <v>17.411626447296399</v>
-      </c>
-      <c r="E4" s="10">
-        <v>6.6290606497039501</v>
-      </c>
-      <c r="F4" s="10">
-        <v>5.6839600572139002</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1.33725595078898E-3</v>
-      </c>
-      <c r="H4" s="15">
-        <v>16.0386666666667</v>
-      </c>
-      <c r="I4" s="15">
-        <v>19.735382559304998</v>
-      </c>
-      <c r="J4" s="15">
-        <v>7.8137500666702202</v>
-      </c>
-      <c r="K4" s="15">
-        <v>6.8612219751962096</v>
-      </c>
-      <c r="L4" s="15">
-        <v>4.0270618556701001E-3</v>
-      </c>
-      <c r="M4" s="11">
-        <v>14.313333333333301</v>
-      </c>
-      <c r="N4" s="11">
-        <v>11.124625748503</v>
-      </c>
-      <c r="O4" s="11">
-        <v>3.7706666666666702</v>
-      </c>
-      <c r="P4" s="11">
-        <v>3.5092422556733598</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>9.4201240764914106E-3</v>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.4440000000000008</v>
+      </c>
+      <c r="D7" s="10">
+        <v>4.8067433113713403</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4.8558989289243799</v>
+      </c>
+      <c r="F7" s="10">
+        <v>10.989025642393299</v>
+      </c>
+      <c r="G7" s="10">
+        <v>9.5359033310164101</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6.36</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1.51131149290364</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1.6822554783538199</v>
+      </c>
+      <c r="L7" s="10">
+        <v>3.6409223669996398</v>
+      </c>
+      <c r="M7" s="10">
+        <v>3.1867013154017201</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>7.1239999999999997</v>
+      </c>
+      <c r="P7" s="10">
+        <v>2.2721208239940198</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>2.4102180418982502</v>
+      </c>
+      <c r="R7" s="10">
+        <v>4.3493333333333304</v>
+      </c>
+      <c r="S7" s="10">
+        <v>4.14131396252714</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10">
-        <v>7.6013333333333302</v>
-      </c>
-      <c r="D5" s="10">
-        <v>4.9945914183838402</v>
-      </c>
-      <c r="E5" s="10">
-        <v>10.823065023737101</v>
-      </c>
-      <c r="F5" s="10">
-        <v>9.3614233962062396</v>
-      </c>
-      <c r="G5" s="10">
-        <v>40.632522064723197</v>
-      </c>
-      <c r="H5" s="15">
-        <v>9.8226666666666702</v>
-      </c>
-      <c r="I5" s="15">
-        <v>4.1029067824924796</v>
-      </c>
-      <c r="J5" s="15">
-        <v>9.0058136433943101</v>
-      </c>
-      <c r="K5" s="15">
-        <v>7.6179251600460702</v>
-      </c>
-      <c r="L5" s="15">
-        <v>41.972723367697597</v>
-      </c>
-      <c r="M5" s="11">
-        <v>7.0253333333333297</v>
-      </c>
-      <c r="N5" s="11">
-        <v>2.8469846022241199</v>
-      </c>
-      <c r="O5" s="11">
-        <v>6.0413333333333297</v>
-      </c>
-      <c r="P5" s="11">
-        <v>5.51988525930593</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>27.801477613747998</v>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.9960000000000004</v>
+      </c>
+      <c r="D8" s="10">
+        <v>14.652298007415499</v>
+      </c>
+      <c r="E8" s="10">
+        <v>13.9293250353909</v>
+      </c>
+      <c r="F8" s="10">
+        <v>16.0108276772499</v>
+      </c>
+      <c r="G8" s="10">
+        <v>13.9763674276854</v>
+      </c>
+      <c r="H8" s="10">
+        <v>13.3805830435945</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9.6533333333333307</v>
+      </c>
+      <c r="J8" s="10">
+        <v>8.9104684665457299</v>
+      </c>
+      <c r="K8" s="10">
+        <v>8.5929983965793699</v>
+      </c>
+      <c r="L8" s="10">
+        <v>10.159907176484699</v>
+      </c>
+      <c r="M8" s="10">
+        <v>8.7121922468990292</v>
+      </c>
+      <c r="N8" s="10">
+        <v>9.2783505154639201</v>
+      </c>
+      <c r="O8" s="2">
+        <v>7.1920000000000002</v>
+      </c>
+      <c r="P8" s="10">
+        <v>6.9831358736257902</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>6.7897605814450603</v>
+      </c>
+      <c r="R8" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="S8" s="10">
+        <v>6.9531187176669302</v>
+      </c>
+      <c r="T8" s="10">
+        <v>7.6800925863623499</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="10">
-        <v>8.7293333333333294</v>
-      </c>
-      <c r="D6" s="10">
-        <v>6.2312202027216497</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1.4669013708860101E-2</v>
-      </c>
-      <c r="F6" s="10">
-        <v>9.3574130763163892E-3</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>9.8293333333333308</v>
-      </c>
-      <c r="I6" s="15">
-        <v>12.7043100567992</v>
-      </c>
-      <c r="J6" s="15">
-        <v>6.8523654594911703</v>
-      </c>
-      <c r="K6" s="15">
-        <v>5.9772855114777803</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <v>7.0839999999999996</v>
-      </c>
-      <c r="N6" s="11">
-        <v>9.0969846022241203</v>
-      </c>
-      <c r="O6" s="11">
-        <v>4.63066666666667</v>
-      </c>
-      <c r="P6" s="11">
-        <v>4.1057330134176899</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>0</v>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.8760000000000003</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3.1449225106031098</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3.1117284115494499</v>
+      </c>
+      <c r="F9" s="10">
+        <v>3.6870107876735201</v>
+      </c>
+      <c r="G9" s="10">
+        <v>3.25883548093889</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1.9296603369884999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>9.5960000000000001</v>
+      </c>
+      <c r="J9" s="10">
+        <v>5.3196030306263999</v>
+      </c>
+      <c r="K9" s="10">
+        <v>5.6239978621058304</v>
+      </c>
+      <c r="L9" s="10">
+        <v>6.5149837958949597</v>
+      </c>
+      <c r="M9" s="10">
+        <v>5.6594422268063296</v>
+      </c>
+      <c r="N9" s="10">
+        <v>3.1921176975945</v>
+      </c>
+      <c r="O9" s="2">
+        <v>7.2106666666666701</v>
+      </c>
+      <c r="P9" s="10">
+        <v>5.6169281673604399</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>5.5833155194527597</v>
+      </c>
+      <c r="R9" s="10">
+        <v>6.5226666666666704</v>
+      </c>
+      <c r="S9" s="10">
+        <v>6.0551639102581296</v>
+      </c>
+      <c r="T9" s="10">
+        <v>2.5811139969586501</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="10">
-        <v>8.4440000000000008</v>
-      </c>
-      <c r="D7" s="10">
-        <v>4.7435263952137401</v>
-      </c>
-      <c r="E7" s="10">
-        <v>10.8737397983677</v>
-      </c>
-      <c r="F7" s="10">
-        <v>9.6274412822329491</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>6.36</v>
-      </c>
-      <c r="I7" s="15">
-        <v>1.6625459405278999</v>
-      </c>
-      <c r="J7" s="15">
-        <v>3.6348605258947102</v>
-      </c>
-      <c r="K7" s="15">
-        <v>3.23172528326146</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
-        <v>7.1239999999999997</v>
-      </c>
-      <c r="N7" s="11">
-        <v>2.4299615055603101</v>
-      </c>
-      <c r="O7" s="11">
-        <v>4.2333333333333298</v>
-      </c>
-      <c r="P7" s="11">
-        <v>3.9140517137380502</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>0</v>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10.325333333333299</v>
+      </c>
+      <c r="D10" s="10">
+        <v>12.099549201099</v>
+      </c>
+      <c r="E10" s="10">
+        <v>10.7347952669676</v>
+      </c>
+      <c r="F10" s="10">
+        <v>12.753190297761099</v>
+      </c>
+      <c r="G10" s="10">
+        <v>11.093140137945801</v>
+      </c>
+      <c r="H10" s="10">
+        <v>3.23615940090933</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3.2786666666666702</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.64427489061999799</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.72554783538214895</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0.95490857683946595</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0.73807163715273105</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0.17987542955326499</v>
+      </c>
+      <c r="O10" s="2">
+        <v>7.1706666666666701</v>
+      </c>
+      <c r="P10" s="10">
+        <v>6.1345928060625496</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>5.4082941427960698</v>
+      </c>
+      <c r="R10" s="10">
+        <v>5.9946666666666699</v>
+      </c>
+      <c r="S10" s="10">
+        <v>5.31535636743775</v>
+      </c>
+      <c r="T10" s="10">
+        <v>2.0428211925877102</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10">
-        <v>6.9960000000000004</v>
-      </c>
-      <c r="D8" s="10">
-        <v>13.852646198635201</v>
-      </c>
-      <c r="E8" s="10">
-        <v>16.330612898063698</v>
-      </c>
-      <c r="F8" s="10">
-        <v>13.9358616172283</v>
-      </c>
-      <c r="G8" s="10">
-        <v>13.3805830435945</v>
-      </c>
-      <c r="H8" s="15">
-        <v>9.6533333333333307</v>
-      </c>
-      <c r="I8" s="15">
-        <v>8.6040761777480803</v>
-      </c>
-      <c r="J8" s="15">
-        <v>10.305882980425601</v>
-      </c>
-      <c r="K8" s="15">
-        <v>8.6786489165081804</v>
-      </c>
-      <c r="L8" s="15">
-        <v>9.2783505154639201</v>
-      </c>
-      <c r="M8" s="11">
-        <v>7.1920000000000002</v>
-      </c>
-      <c r="N8" s="11">
-        <v>6.6095487596236104</v>
-      </c>
-      <c r="O8" s="11">
-        <v>7.60666666666667</v>
-      </c>
-      <c r="P8" s="11">
-        <v>7.0922080881465899</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>7.6800925863623499</v>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10.468</v>
+      </c>
+      <c r="D11" s="10">
+        <v>9.2813892075008706</v>
+      </c>
+      <c r="E11" s="10">
+        <v>8.0945003872966694</v>
+      </c>
+      <c r="F11" s="10">
+        <v>9.9462616510874309</v>
+      </c>
+      <c r="G11" s="10">
+        <v>8.7325562743944793</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1.20353035571008E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6.4546666666666699</v>
+      </c>
+      <c r="J11" s="10">
+        <v>3.2533881122612298</v>
+      </c>
+      <c r="K11" s="10">
+        <v>3.09192944949225</v>
+      </c>
+      <c r="L11" s="10">
+        <v>3.8436403888985202</v>
+      </c>
+      <c r="M11" s="10">
+        <v>3.3059179682267499</v>
+      </c>
+      <c r="N11" s="10">
+        <v>1.34235395189003E-3</v>
+      </c>
+      <c r="O11" s="2">
+        <v>14.452</v>
+      </c>
+      <c r="P11" s="10">
+        <v>10.4840431209307</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>8.8806648140230902</v>
+      </c>
+      <c r="R11" s="10">
+        <v>9.7733333333333299</v>
+      </c>
+      <c r="S11" s="10">
+        <v>8.7637708740986895</v>
+      </c>
+      <c r="T11" s="10">
+        <v>6.7286600546367197E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10">
-        <v>4.8760000000000003</v>
-      </c>
-      <c r="D9" s="10">
-        <v>3.1062619356044898</v>
-      </c>
-      <c r="E9" s="10">
-        <v>3.6365818530965002</v>
-      </c>
-      <c r="F9" s="10">
-        <v>3.1922146323204998</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1.9296603369884999</v>
-      </c>
-      <c r="H9" s="15">
-        <v>9.5960000000000001</v>
-      </c>
-      <c r="I9" s="15">
-        <v>5.6866020715001699</v>
-      </c>
-      <c r="J9" s="15">
-        <v>6.6683556456344304</v>
-      </c>
-      <c r="K9" s="15">
-        <v>5.6170144376289102</v>
-      </c>
-      <c r="L9" s="15">
-        <v>3.1921176975945</v>
-      </c>
-      <c r="M9" s="11">
-        <v>7.2106666666666701</v>
-      </c>
-      <c r="N9" s="11">
-        <v>5.7995615911035099</v>
-      </c>
-      <c r="O9" s="11">
-        <v>6.5960000000000001</v>
-      </c>
-      <c r="P9" s="11">
-        <v>6.1753548784901398</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>2.5811139969586501</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10">
-        <v>10.325333333333299</v>
-      </c>
-      <c r="D10" s="10">
-        <v>10.7811060215542</v>
-      </c>
-      <c r="E10" s="10">
-        <v>12.8993972368912</v>
-      </c>
-      <c r="F10" s="10">
-        <v>11.0283796970872</v>
-      </c>
-      <c r="G10" s="10">
-        <v>3.23615940090933</v>
-      </c>
-      <c r="H10" s="15">
-        <v>3.2786666666666702</v>
-      </c>
-      <c r="I10" s="15">
-        <v>0.78316070831941198</v>
-      </c>
-      <c r="J10" s="15">
-        <v>0.91471545149074596</v>
-      </c>
-      <c r="K10" s="15">
-        <v>0.71652425468084502</v>
-      </c>
-      <c r="L10" s="15">
-        <v>0.17987542955326499</v>
-      </c>
-      <c r="M10" s="11">
-        <v>7.1706666666666701</v>
-      </c>
-      <c r="N10" s="11">
-        <v>5.5055068434559402</v>
-      </c>
-      <c r="O10" s="11">
-        <v>6.032</v>
-      </c>
-      <c r="P10" s="11">
-        <v>5.4273956811388304</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>2.0428211925877102</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10">
-        <v>10.468</v>
-      </c>
-      <c r="D11" s="10">
-        <v>8.0394225504467105</v>
-      </c>
-      <c r="E11" s="10">
-        <v>9.7028857950605403</v>
-      </c>
-      <c r="F11" s="10">
-        <v>8.6061464836178398</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1.20353035571008E-2</v>
-      </c>
-      <c r="H11" s="15">
-        <v>6.4546666666666699</v>
-      </c>
-      <c r="I11" s="15">
-        <v>3.1553625125292299</v>
-      </c>
-      <c r="J11" s="15">
-        <v>3.6948637260653898</v>
-      </c>
-      <c r="K11" s="15">
-        <v>3.21163581817695</v>
-      </c>
-      <c r="L11" s="15">
-        <v>1.34235395189003E-3</v>
-      </c>
-      <c r="M11" s="11">
-        <v>14.452</v>
-      </c>
-      <c r="N11" s="11">
-        <v>8.8470380667236999</v>
-      </c>
-      <c r="O11" s="11">
-        <v>9.4826666666666704</v>
-      </c>
-      <c r="P11" s="11">
-        <v>8.7610417811616195</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>6.7286600546367197E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="10">
@@ -1578,342 +1651,425 @@
       <c r="G12" s="10">
         <v>0</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
         <v>3.1453333333333302</v>
       </c>
-      <c r="I12" s="15">
-        <v>1.2616104243234201</v>
-      </c>
-      <c r="J12" s="15">
-        <v>1.66408875140007</v>
-      </c>
-      <c r="K12" s="15">
-        <v>1.3875123885034699</v>
-      </c>
-      <c r="L12" s="15">
+      <c r="J12" s="10">
+        <v>1.34190587984207</v>
+      </c>
+      <c r="K12" s="10">
+        <v>1.22127204703367</v>
+      </c>
+      <c r="L12" s="10">
+        <v>1.6417492431416001</v>
+      </c>
+      <c r="M12" s="10">
+        <v>1.3743402898706001</v>
+      </c>
+      <c r="N12" s="10">
         <v>1.29671391752577</v>
       </c>
-      <c r="M12" s="11">
+      <c r="O12" s="2">
         <v>6.9746666666666703</v>
       </c>
-      <c r="N12" s="11">
-        <v>4.80645851154833</v>
-      </c>
-      <c r="O12" s="11">
-        <v>5.0919999999999996</v>
-      </c>
-      <c r="P12" s="11">
-        <v>4.8295644947254104</v>
-      </c>
-      <c r="Q12" s="11">
+      <c r="P12" s="10">
+        <v>5.7156580211335299</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>4.6561030354852502</v>
+      </c>
+      <c r="R12" s="10">
+        <v>5.2933333333333303</v>
+      </c>
+      <c r="S12" s="10">
+        <v>4.8100892593883202</v>
+      </c>
+      <c r="T12" s="10">
         <v>5.3317902272941398</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="1">
         <v>8.6986666666666697</v>
       </c>
       <c r="D13" s="10">
-        <v>11.4822184532792</v>
+        <v>12.7357358158393</v>
       </c>
       <c r="E13" s="10">
-        <v>13.0660905744919</v>
+        <v>11.3451213974732</v>
       </c>
       <c r="F13" s="10">
-        <v>11.468178111674</v>
+        <v>13.162561839105001</v>
       </c>
       <c r="G13" s="10">
+        <v>11.2949794150671</v>
+      </c>
+      <c r="H13" s="10">
         <v>7.3268253543728301</v>
       </c>
-      <c r="H13" s="15">
+      <c r="I13" s="2">
         <v>9.7720000000000002</v>
       </c>
-      <c r="I13" s="15">
-        <v>13.944537253591699</v>
-      </c>
-      <c r="J13" s="15">
-        <v>16.8208971145128</v>
-      </c>
-      <c r="K13" s="15">
-        <v>14.441646800417899</v>
-      </c>
-      <c r="L13" s="15">
+      <c r="J13" s="10">
+        <v>15.013072244157501</v>
+      </c>
+      <c r="K13" s="10">
+        <v>14.3666488508819</v>
+      </c>
+      <c r="L13" s="10">
+        <v>16.841599871967599</v>
+      </c>
+      <c r="M13" s="10">
+        <v>14.4613818415624</v>
+      </c>
+      <c r="N13" s="10">
         <v>10.1387993986254</v>
       </c>
-      <c r="M13" s="11">
+      <c r="O13" s="2">
         <v>7.1973333333333303</v>
       </c>
-      <c r="N13" s="11">
-        <v>11.248930710008599</v>
-      </c>
-      <c r="O13" s="11">
-        <v>13.2586666666667</v>
-      </c>
-      <c r="P13" s="11">
-        <v>12.224709462086</v>
-      </c>
-      <c r="Q13" s="11">
+      <c r="P13" s="10">
+        <v>11.5447219553848</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>11.2401132962805</v>
+      </c>
+      <c r="R13" s="10">
+        <v>13.249333333333301</v>
+      </c>
+      <c r="S13" s="10">
+        <v>12.1089875894604</v>
+      </c>
+      <c r="T13" s="10">
         <v>6.4622051164731102</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="1">
         <v>7.9986666666666704</v>
       </c>
       <c r="D14" s="10">
-        <v>9.7514723361066196</v>
+        <v>10.805836378671099</v>
       </c>
       <c r="E14" s="10">
-        <v>10.2042993545634</v>
+        <v>9.7785731456502596</v>
       </c>
       <c r="F14" s="10">
-        <v>8.7424973598727398</v>
+        <v>10.104943128025299</v>
       </c>
       <c r="G14" s="10">
+        <v>8.6323049778110494</v>
+      </c>
+      <c r="H14" s="10">
         <v>10.5282161005616</v>
       </c>
-      <c r="H14" s="15">
+      <c r="I14" s="2">
         <v>9.6226666666666691</v>
       </c>
-      <c r="I14" s="15">
-        <v>7.1767457400601398</v>
-      </c>
-      <c r="J14" s="15">
-        <v>7.3643927676142704</v>
-      </c>
-      <c r="K14" s="15">
-        <v>6.37237832480647</v>
-      </c>
-      <c r="L14" s="15">
+      <c r="J14" s="10">
+        <v>7.5272116102870603</v>
+      </c>
+      <c r="K14" s="10">
+        <v>7.2848743987172604</v>
+      </c>
+      <c r="L14" s="10">
+        <v>7.35919766340806</v>
+      </c>
+      <c r="M14" s="10">
+        <v>6.2300747448227796</v>
+      </c>
+      <c r="N14" s="10">
         <v>7.7601481958762903</v>
       </c>
-      <c r="M14" s="11">
+      <c r="O14" s="2">
         <v>7.1373333333333298</v>
       </c>
-      <c r="N14" s="11">
-        <v>11.053785286569701</v>
-      </c>
-      <c r="O14" s="11">
-        <v>10.825333333333299</v>
-      </c>
-      <c r="P14" s="11">
-        <v>9.7315121375815998</v>
-      </c>
-      <c r="Q14" s="11">
+      <c r="P14" s="10">
+        <v>11.291226384886301</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>11.242785378366801</v>
+      </c>
+      <c r="R14" s="10">
+        <v>10.642666666666701</v>
+      </c>
+      <c r="S14" s="10">
+        <v>9.8721419572734295</v>
+      </c>
+      <c r="T14" s="10">
         <v>10.7375957151893</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="1">
         <v>4.0039999999999996</v>
       </c>
       <c r="D15" s="10">
-        <v>1.0523363737129601</v>
+        <v>1.0269679105871099</v>
       </c>
       <c r="E15" s="10">
-        <v>1.21352749773297</v>
+        <v>1.04970752423943</v>
       </c>
       <c r="F15" s="10">
-        <v>1.0961541032256299</v>
+        <v>1.20811275719067</v>
       </c>
       <c r="G15" s="10">
+        <v>1.0586536919210801</v>
+      </c>
+      <c r="H15" s="10">
         <v>1.0149772666488399</v>
       </c>
-      <c r="H15" s="15">
+      <c r="I15" s="2">
         <v>6.4266666666666703</v>
       </c>
-      <c r="I15" s="15">
-        <v>16.140327430671601</v>
-      </c>
-      <c r="J15" s="15">
-        <v>18.022294522374501</v>
-      </c>
-      <c r="K15" s="15">
-        <v>15.3671014919776</v>
-      </c>
-      <c r="L15" s="15">
+      <c r="J15" s="10">
+        <v>16.976576672713701</v>
+      </c>
+      <c r="K15" s="10">
+        <v>16.123730625334002</v>
+      </c>
+      <c r="L15" s="10">
+        <v>18.0365692642136</v>
+      </c>
+      <c r="M15" s="10">
+        <v>15.397701395772501</v>
+      </c>
+      <c r="N15" s="10">
         <v>16.327051116838501</v>
       </c>
-      <c r="M15" s="11">
+      <c r="O15" s="2">
         <v>7.1186666666666696</v>
       </c>
-      <c r="N15" s="11">
-        <v>15.627673224978601</v>
-      </c>
-      <c r="O15" s="11">
-        <v>16.852</v>
-      </c>
-      <c r="P15" s="11">
-        <v>15.3009932576438</v>
-      </c>
-      <c r="Q15" s="11">
+      <c r="P15" s="10">
+        <v>15.5005870423738</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>15.471355280034199</v>
+      </c>
+      <c r="R15" s="10">
+        <v>16.788</v>
+      </c>
+      <c r="S15" s="10">
+        <v>15.5051330849438</v>
+      </c>
+      <c r="T15" s="10">
         <v>15.4503492174568</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="10">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="10">
-        <v>8.5535716670450395</v>
+        <v>0.160046947104484</v>
       </c>
       <c r="E16" s="10">
-        <v>4.6060703045820697</v>
+        <v>8.5125136889339998</v>
       </c>
       <c r="F16" s="10">
-        <v>17.2483858462443</v>
+        <v>4.6751030096142303</v>
       </c>
       <c r="G16" s="10">
+        <v>17.1737154467198</v>
+      </c>
+      <c r="H16" s="10">
         <v>21.937683872693199</v>
       </c>
-      <c r="H16" s="15">
+      <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="15">
-        <v>5.0424323421316402</v>
-      </c>
-      <c r="J16" s="15">
-        <v>7.2377193450317296</v>
-      </c>
-      <c r="K16" s="15">
-        <v>20.519379637318199</v>
-      </c>
-      <c r="L16" s="15">
+      <c r="J16" s="10">
+        <v>0.64427489061999799</v>
+      </c>
+      <c r="K16" s="10">
+        <v>5.0414216996258698</v>
+      </c>
+      <c r="L16" s="10">
+        <v>7.1551459703124802</v>
+      </c>
+      <c r="M16" s="10">
+        <v>20.481153052749999</v>
+      </c>
+      <c r="N16" s="10">
         <v>9.8488509450171797</v>
       </c>
-      <c r="M16" s="11">
+      <c r="O16" s="2">
         <v>0</v>
       </c>
-      <c r="N16" s="11">
-        <v>5.0029405474764799</v>
-      </c>
-      <c r="O16" s="11">
-        <v>5.5786666666666704</v>
-      </c>
-      <c r="P16" s="11">
-        <v>13.408307976891001</v>
-      </c>
-      <c r="Q16" s="11">
+      <c r="P16" s="10">
+        <v>1.3501974597075499</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>5.1010047028644703</v>
+      </c>
+      <c r="R16" s="10">
+        <v>5.4560000000000004</v>
+      </c>
+      <c r="S16" s="10">
+        <v>13.2602460664219</v>
+      </c>
+      <c r="T16" s="10">
         <v>21.8964055497988</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="2">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11">
         <f>SQRT((((D4-$C$4)^2)+((D16-$C$16)^2)+((D5-$C$5)^2)+((D8-$C$8)^2)+((D10-$C$10)^2)+((D13-$C$13)^2)+((D14-$C$14)^2)+((D7-$C$7)^2)+((D9-$C$9)^2)+((D6-$C$6)^2)+((D15-$C$15)^2)+((D11-$C$11)^2)+((D12-$C$12)^2))/12)</f>
-        <v>4.0358087377060903</v>
-      </c>
-      <c r="E17" s="8">
+        <v>3.2753181055708929</v>
+      </c>
+      <c r="E17" s="11">
         <f>SQRT((((E4-$C$4)^2)+((E16-$C$16)^2)+((E5-$C$5)^2)+((E8-$C$8)^2)+((E10-$C$10)^2)+((E13-$C$13)^2)+((E14-$C$14)^2)+((E7-$C$7)^2)+((E9-$C$9)^2)+((E6-$C$6)^2)+((E15-$C$15)^2)+((E11-$C$11)^2)+((E12-$C$12)^2))/12)</f>
-        <v>6.2782272698015742</v>
-      </c>
-      <c r="F17" s="8">
+        <v>4.0248783445532608</v>
+      </c>
+      <c r="F17" s="11">
         <f>SQRT((((F4-$C$4)^2)+((F16-$C$16)^2)+((F5-$C$5)^2)+((F8-$C$8)^2)+((F10-$C$10)^2)+((F13-$C$13)^2)+((F14-$C$14)^2)+((F7-$C$7)^2)+((F9-$C$9)^2)+((F6-$C$6)^2)+((F15-$C$15)^2)+((F11-$C$11)^2)+((F12-$C$12)^2))/12)</f>
-        <v>7.6990313740912022</v>
-      </c>
-      <c r="G17" s="8">
+        <v>6.235157527164489</v>
+      </c>
+      <c r="G17" s="11">
         <f>SQRT((((G4-$C$4)^2)+((G16-$C$16)^2)+((G5-$C$5)^2)+((G8-$C$8)^2)+((G10-$C$10)^2)+((G13-$C$13)^2)+((G14-$C$14)^2)+((G7-$C$7)^2)+((G9-$C$9)^2)+((G6-$C$6)^2)+((G15-$C$15)^2)+((G11-$C$11)^2)+((G12-$C$12)^2))/12)</f>
+        <v>7.67085285462516</v>
+      </c>
+      <c r="H17" s="11">
+        <f>SQRT((((H4-$C$4)^2)+((H16-$C$16)^2)+((H5-$C$5)^2)+((H8-$C$8)^2)+((H10-$C$10)^2)+((H13-$C$13)^2)+((H14-$C$14)^2)+((H7-$C$7)^2)+((H9-$C$9)^2)+((H6-$C$6)^2)+((H15-$C$15)^2)+((H11-$C$11)^2)+((H12-$C$12)^2))/12)</f>
         <v>14.212110084867895</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="13">
-        <f>SQRT((((I4-$H$4)^2)+((I16-$H$16)^2)+((I5-$H$5)^2)+((I8-$H$8)^2)+((I10-$H$10)^2)+((I13-$H$13)^2)+((I14-$H$14)^2)+((I7-$H$7)^2)+((I9-$H$9)^2)+((I6-$H$6)^2)+((I15-$H$15)^2)+((I11-$H$11)^2)+((I12-$H$12)^2))/12)</f>
-        <v>4.6272071817068223</v>
-      </c>
-      <c r="J17" s="16">
-        <f>SQRT((((J4-$H$4)^2)+((J16-$H$16)^2)+((J5-$H$5)^2)+((J8-$H$8)^2)+((J10-$H$10)^2)+((J13-$H$13)^2)+((J14-$H$14)^2)+((J7-$H$7)^2)+((J9-$H$9)^2)+((J6-$H$6)^2)+((J15-$H$15)^2)+((J11-$H$11)^2)+((J12-$H$12)^2))/12)</f>
-        <v>5.4054827773223515</v>
-      </c>
-      <c r="K17" s="16">
-        <f>SQRT((((K4-$H$4)^2)+((K16-$H$16)^2)+((K5-$H$5)^2)+((K8-$H$8)^2)+((K10-$H$10)^2)+((K13-$H$13)^2)+((K14-$H$14)^2)+((K7-$H$7)^2)+((K9-$H$9)^2)+((K6-$H$6)^2)+((K15-$H$15)^2)+((K11-$H$11)^2)+((K12-$H$12)^2))/12)</f>
-        <v>7.5498958907212996</v>
-      </c>
-      <c r="L17" s="16">
-        <f>SQRT((((L4-$H$4)^2)+((L16-$H$16)^2)+((L5-$H$5)^2)+((L8-$H$8)^2)+((L10-$H$10)^2)+((L13-$H$13)^2)+((L14-$H$14)^2)+((L7-$H$7)^2)+((L9-$H$9)^2)+((L6-$H$6)^2)+((L15-$H$15)^2)+((L11-$H$11)^2)+((L12-$H$12)^2))/12)</f>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11">
+        <f>SQRT((((J4-$I$4)^2)+((J16-$I$16)^2)+((J5-$I$5)^2)+((J8-$I$8)^2)+((J10-$I$10)^2)+((J13-$I$13)^2)+((J14-$I$14)^2)+((J7-$I$7)^2)+((J9-$I$9)^2)+((J6-$I$6)^2)+((J15-$I$15)^2)+((J11-$I$11)^2)+((J12-$I$12)^2))/12)</f>
+        <v>4.8409316816075627</v>
+      </c>
+      <c r="K17" s="11">
+        <f>SQRT((((K4-$I$4)^2)+((K16-$I$16)^2)+((K5-$I$5)^2)+((K8-$I$8)^2)+((K10-$I$10)^2)+((K13-$I$13)^2)+((K14-$I$14)^2)+((K7-$I$7)^2)+((K9-$I$9)^2)+((K6-$I$6)^2)+((K15-$I$15)^2)+((K11-$I$11)^2)+((K12-$I$12)^2))/12)</f>
+        <v>4.6574892433139548</v>
+      </c>
+      <c r="L17" s="11">
+        <f>SQRT((((L4-$I$4)^2)+((L16-$I$16)^2)+((L5-$I$5)^2)+((L8-$I$8)^2)+((L10-$I$10)^2)+((L13-$I$13)^2)+((L14-$I$14)^2)+((L7-$I$7)^2)+((L9-$I$9)^2)+((L6-$I$6)^2)+((L15-$I$15)^2)+((L11-$I$11)^2)+((L12-$I$12)^2))/12)</f>
+        <v>5.3808621229653122</v>
+      </c>
+      <c r="M17" s="11">
+        <f>SQRT((((M4-$I$4)^2)+((M16-$I$16)^2)+((M5-$I$5)^2)+((M8-$I$8)^2)+((M10-$I$10)^2)+((M13-$I$13)^2)+((M14-$I$14)^2)+((M7-$I$7)^2)+((M9-$I$9)^2)+((M6-$I$6)^2)+((M15-$I$15)^2)+((M11-$I$11)^2)+((M12-$I$12)^2))/12)</f>
+        <v>7.5523835311165959</v>
+      </c>
+      <c r="N17" s="11">
+        <f>SQRT((((N4-$I$4)^2)+((N16-$I$16)^2)+((N5-$I$5)^2)+((N8-$I$8)^2)+((N10-$I$10)^2)+((N13-$I$13)^2)+((N14-$I$14)^2)+((N7-$I$7)^2)+((N9-$I$9)^2)+((N6-$I$6)^2)+((N15-$I$15)^2)+((N11-$I$11)^2)+((N12-$I$12)^2))/12)</f>
         <v>11.979975713603094</v>
       </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="2">
-        <f>SQRT((((N4-$M$4)^2)+((N16-$M$16)^2)+((N5-$M$5)^2)+((N8-$M$8)^2)+((N10-$M$10)^2)+((N13-$M$13)^2)+((N14-$M$14)^2)+((N7-$M$7)^2)+((N9-$M$9)^2)+((N6-$M$6)^2)+((N15-$M$15)^2)+((N11-$M$11)^2)+((N12-$M$12)^2))/12)</f>
-        <v>4.3216427394374515</v>
-      </c>
-      <c r="O17" s="8">
-        <f>SQRT((((O4-$M$4)^2)+((O16-$M$16)^2)+((O5-$M$5)^2)+((O8-$M$8)^2)+((O10-$M$10)^2)+((O13-$M$13)^2)+((O14-$M$14)^2)+((O7-$M$7)^2)+((O9-$M$9)^2)+((O6-$M$6)^2)+((O15-$M$15)^2)+((O11-$M$11)^2)+((O12-$M$12)^2))/12)</f>
-        <v>5.2660572924539437</v>
-      </c>
-      <c r="P17" s="8">
-        <f>SQRT((((P4-$M$4)^2)+((P16-$M$16)^2)+((P5-$M$5)^2)+((P8-$M$8)^2)+((P10-$M$10)^2)+((P13-$M$13)^2)+((P14-$M$14)^2)+((P7-$M$7)^2)+((P9-$M$9)^2)+((P6-$M$6)^2)+((P15-$M$15)^2)+((P11-$M$11)^2)+((P12-$M$12)^2))/12)</f>
-        <v>6.1780212396092926</v>
-      </c>
-      <c r="Q17" s="8">
-        <f>SQRT((((Q4-$M$4)^2)+((Q16-$M$16)^2)+((Q5-$M$5)^2)+((Q8-$M$8)^2)+((Q10-$M$10)^2)+((Q13-$M$13)^2)+((Q14-$M$14)^2)+((Q7-$M$7)^2)+((Q9-$M$9)^2)+((Q6-$M$6)^2)+((Q15-$M$15)^2)+((Q11-$M$11)^2)+((Q12-$M$12)^2))/12)</f>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11">
+        <f>SQRT((((P4-$O$4)^2)+((P16-$O$16)^2)+((P5-$O$5)^2)+((P8-$O$8)^2)+((P10-$O$10)^2)+((P13-$O$13)^2)+((P14-$O$14)^2)+((P7-$O$7)^2)+((P9-$O$9)^2)+((P6-$O$6)^2)+((P15-$O$15)^2)+((P11-$O$11)^2)+((P12-$O$12)^2))/12)</f>
+        <v>3.9364715510014356</v>
+      </c>
+      <c r="Q17" s="11">
+        <f>SQRT((((Q4-$O$4)^2)+((Q16-$O$16)^2)+((Q5-$O$5)^2)+((Q8-$O$8)^2)+((Q10-$O$10)^2)+((Q13-$O$13)^2)+((Q14-$O$14)^2)+((Q7-$O$7)^2)+((Q9-$O$9)^2)+((Q6-$O$6)^2)+((Q15-$O$15)^2)+((Q11-$O$11)^2)+((Q12-$O$12)^2))/12)</f>
+        <v>4.317814223786252</v>
+      </c>
+      <c r="R17" s="11">
+        <f>SQRT((((R4-$O$4)^2)+((R16-$O$16)^2)+((R5-$O$5)^2)+((R8-$O$8)^2)+((R10-$O$10)^2)+((R13-$O$13)^2)+((R14-$O$14)^2)+((R7-$O$7)^2)+((R9-$O$9)^2)+((R6-$O$6)^2)+((R15-$O$15)^2)+((R11-$O$11)^2)+((R12-$O$12)^2))/12)</f>
+        <v>5.2063640259177335</v>
+      </c>
+      <c r="S17" s="11">
+        <f>SQRT((((S4-$O$4)^2)+((S16-$O$16)^2)+((S5-$O$5)^2)+((S8-$O$8)^2)+((S10-$O$10)^2)+((S13-$O$13)^2)+((S14-$O$14)^2)+((S7-$O$7)^2)+((S9-$O$9)^2)+((S6-$O$6)^2)+((S15-$O$15)^2)+((S11-$O$11)^2)+((S12-$O$12)^2))/12)</f>
+        <v>6.1624534183653763</v>
+      </c>
+      <c r="T17" s="11">
+        <f>SQRT((((T4-$O$4)^2)+((T16-$O$16)^2)+((T5-$O$5)^2)+((T8-$O$8)^2)+((T10-$O$10)^2)+((T13-$O$13)^2)+((T14-$O$14)^2)+((T7-$O$7)^2)+((T9-$O$9)^2)+((T6-$O$6)^2)+((T15-$O$15)^2)+((T11-$O$11)^2)+((T12-$O$12)^2))/12)</f>
         <v>11.397686342998803</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="20">
-        <v>0.8955554</v>
-      </c>
-      <c r="E18" s="20">
-        <v>0.86110960000000003</v>
-      </c>
-      <c r="F18" s="20">
-        <v>0.7855084</v>
-      </c>
-      <c r="G18" s="20">
-        <v>0.78196350000000003</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="20">
-        <v>0.86855919999999998</v>
-      </c>
-      <c r="J18" s="20">
-        <v>0.84100483999999998</v>
-      </c>
-      <c r="K18" s="20">
-        <v>0.80769831999999997</v>
-      </c>
-      <c r="L18" s="20">
-        <v>0.78403736000000002</v>
-      </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="20">
-        <v>0.87963248999999999</v>
-      </c>
-      <c r="O18" s="20">
-        <v>0.86843428</v>
-      </c>
-      <c r="P18" s="20">
-        <v>0.81687326999999998</v>
-      </c>
-      <c r="Q18" s="20">
-        <v>0.79098183</v>
-      </c>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9">
+        <v>0.88534889999999999</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.78100259999999999</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.7029145</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.62977970000000005</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.49979030000000002</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9">
+        <v>0.81918829999999998</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.73672169999999992</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.71211540000000007</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.61232520000000001</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.56940380000000002</v>
+      </c>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9">
+        <v>0.84135800000000005</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0.76102069999999999</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0.74979069999999992</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0.65983829999999999</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0.55804549999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" orientation="landscape" r:id="rId1"/>
